--- a/data/apicases.xlsx
+++ b/data/apicases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18971" windowHeight="8555" tabRatio="936" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27180" windowHeight="10605" tabRatio="936" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="recharge" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="add" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="audio" sheetId="6" state="visible" r:id="rId6"/>
@@ -65,13 +65,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -79,7 +72,37 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,7 +116,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,6 +147,46 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
@@ -130,79 +202,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +216,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,13 +258,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,25 +318,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,109 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +436,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -453,9 +471,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,51 +533,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -551,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,10 +694,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -1019,19 +1019,19 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="20.8888888888889" customWidth="1" min="3" max="3"/>
+    <col width="20.8916666666667" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="17.5555555555556" customWidth="1" min="5" max="5"/>
-    <col width="69.6666666666667" customWidth="1" min="6" max="6"/>
-    <col width="40.8888888888889" customWidth="1" min="7" max="7"/>
+    <col width="17.5583333333333" customWidth="1" min="5" max="5"/>
+    <col width="46.4416666666667" customWidth="1" min="6" max="6"/>
+    <col width="40.8916666666667" customWidth="1" min="7" max="7"/>
     <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -1166,7 +1166,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
@@ -1206,7 +1206,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
@@ -1246,7 +1246,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
@@ -1286,7 +1286,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
@@ -1326,7 +1326,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
@@ -1366,7 +1366,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
@@ -1406,7 +1406,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
@@ -1446,7 +1446,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
@@ -1501,7 +1501,7 @@
           <t>/member/register</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
@@ -1526,7 +1526,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
@@ -1566,7 +1566,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
@@ -1604,6 +1604,662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="19.775" customWidth="1" min="3" max="3"/>
+    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
+    <col width="18.775" customWidth="1" min="5" max="5"/>
+    <col width="33.775" customWidth="1" min="6" max="6"/>
+    <col width="24.5583333333333" customWidth="1" min="7" max="7"/>
+    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-整数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-1位小数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.1}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-2位小数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.22}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>充值成功-50万</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":500000}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>会员id为空</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>{"amount":600}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>id不是当前登录的用户</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": "98989898","amount":600}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customFormat="1" customHeight="1" s="11">
+      <c r="A8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>会员id为字符串</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":600}</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>会员id为小数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": float(#member_id#), "amount":600}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>充值金额为0</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 0}</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>充值金额为负数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": -600}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customFormat="1" customHeight="1" s="11">
+      <c r="A12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>充值金额为空</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#}</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"充值金额为空"}</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>充值金额-3位小数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 600.222}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额小数超过两位"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>充值金额-大于50万</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 500001}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="14.4" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>充值金额-非数字</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": "5万"}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1615,12 +2271,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col width="16.8796296296296" customWidth="1" min="3" max="3"/>
+    <col width="16.8833333333333" customWidth="1" min="3" max="3"/>
     <col width="7.5" customWidth="1" min="4" max="4"/>
-    <col width="14.3796296296296" customWidth="1" min="5" max="5"/>
-    <col width="24.2222222222222" customWidth="1" min="6" max="6"/>
+    <col width="14.3833333333333" customWidth="1" min="5" max="5"/>
+    <col width="32.6666666666667" customWidth="1" min="6" max="6"/>
     <col width="38.3333333333333" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1707,20 +2363,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1730,7 +2386,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
@@ -1747,20 +2403,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1770,7 +2426,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>{"mobile_phone":"15512345678",}</t>
         </is>
@@ -1795,7 +2451,7 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
@@ -1835,7 +2491,7 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
@@ -1875,7 +2531,7 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
@@ -1910,662 +2566,6 @@
   <hyperlinks>
     <hyperlink ref="B1" display="interface" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="19.7777777777778" customWidth="1" min="3" max="3"/>
-    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="18.7777777777778" customWidth="1" min="5" max="5"/>
-    <col width="33.7777777777778" customWidth="1" min="6" max="6"/>
-    <col width="24.5555555555556" customWidth="1" min="7" max="7"/>
-    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>interface</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>check_sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-整数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600}</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-1位小数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600.1}</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-2位小数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600.22}</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-50万</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":500000}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>会员id为空</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>{"amount":600}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{"code":1,"msg":"用户id为空"}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>id不是当前登录的用户</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": "98989898","amount":600}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customFormat="1" customHeight="1" s="8">
-      <c r="A8" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>会员id为字符串</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>{"member_id": "#member_id#","amount":600}</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>会员id为小数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": float(#member_id#), "amount":600}</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>充值金额为0</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 0}</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>充值金额为负数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": -600}</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customFormat="1" customHeight="1" s="8">
-      <c r="A12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>充值金额为空</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#}</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>{"code":1,"msg":"充值金额为空"}</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>充值金额-3位小数</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 600.222}</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额小数超过两位"}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>充值金额-大于50万</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 500001}</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>充值金额-非数字</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": "5万"}</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2582,15 +2582,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="19.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="19.775" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="11.8888888888889" customWidth="1" min="5" max="5"/>
-    <col width="42.8888888888889" customWidth="1" min="6" max="6"/>
-    <col width="57.7777777777778" customWidth="1" min="7" max="7"/>
+    <col width="11.8916666666667" customWidth="1" min="5" max="5"/>
+    <col width="42.8916666666667" customWidth="1" min="6" max="6"/>
+    <col width="57.775" customWidth="1" min="7" max="7"/>
     <col width="7.66666666666667" customWidth="1" min="8" max="8"/>
     <col width="11.6666666666667" customWidth="1" min="9" max="9"/>
   </cols>
@@ -3273,22 +3273,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="18.6666666666667" customWidth="1" min="3" max="3"/>
+    <col width="25.1083333333333" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
+    <col width="15.225" customWidth="1" min="5" max="5"/>
     <col width="36.6666666666667" customWidth="1" min="6" max="6"/>
     <col width="27.3333333333333" customWidth="1" min="7" max="7"/>
-    <col width="20.1111111111111" customWidth="1" min="8" max="8"/>
-    <col width="9.555555555555561" customWidth="1" min="9" max="9"/>
+    <col width="20.1083333333333" customWidth="1" min="8" max="8"/>
+    <col width="59.25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3338,18 +3338,18 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1">
+    <row r="2" ht="25" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>login</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>不登录-加标</t>
+          <t>借款人正常登录</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -3359,17 +3359,22 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>/loan/add</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{"code":1003,"msg":"未授权或token已过期"}</t>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3379,12 +3384,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>add</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>管理员正常登录</t>
+          <t>加标成功</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -3394,17 +3399,27 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>/member/login</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{code:0,"msg":"OK"}</t>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT * FROM  futureloan.loan WHERE member_id=#admin_member_id#;</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3434,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>加标成功</t>
+          <t>加标失败—借款人id为空</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -3434,12 +3449,17 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{code:0,"msg":"OK"}</t>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3474,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>借款人id为空</t>
+          <t>加标失败—标题为空</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -3469,12 +3489,17 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"用户id为空"}</t>
+          <t>{"code":1,"msg":"标题为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3514,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>标题为空</t>
+          <t>加标失败—借款金额为空</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -3504,12 +3529,17 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"标题为空"}</t>
+          <t>{"code":1,"msg":"借款金额为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3554,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>借款金额为空</t>
+          <t>加标失败—年利率为空</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -3539,12 +3569,17 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"借款金额为空"}</t>
+          <t>{"code":1,"msg":"利率为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3594,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>年利率为空</t>
+          <t>加标失败—借款期限为空</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -3574,12 +3609,17 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"利率为空"}</t>
+          <t>{"code":1,"msg":"借款期限为空"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3634,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>借款期限为空</t>
+          <t>加标失败—借款期限类型为空</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -3609,12 +3649,17 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"借款期限为空"}</t>
+          <t>{"code":1,"msg":"借款日期类型为空"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3674,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>借款期限为字符串</t>
+          <t>加标失败—竞标天数为空</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -3644,12 +3689,17 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":"3","loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{"code":2,"msg":"借款期限类型错误"}</t>
+          <t>{"code":1,"msg":"竞标期限为空"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3714,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>借款期限类型为空</t>
+          <t>加标失败—借款人id不是当前登录用户</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -3679,12 +3729,17 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"借款日期类型为空"}</t>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3754,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>竞标天数为空</t>
+          <t>加标失败—借款金额为负数</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -3714,12 +3769,17 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{"code":1,"msg":"竞标期限为空"}</t>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3794,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>借款人id为负数</t>
+          <t>加标失败—借款金额为小数</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -3749,152 +3809,17 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":-#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{"code":2,"msg":"非法的用户id"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>借款人id为小数</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>/loan/add</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id":1.2,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{"code":1007,"msg":"无权限访问"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="25" customHeight="1">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>借款人id不存在</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>/loan/add</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id":{not_existed_id},"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{"code":1007,"msg":"无权限访问"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="25" customHeight="1">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>借款金额为负数</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>/loan/add</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>{"code":2,"msg":"借款金额范围错误"}</t>
         </is>
       </c>
-    </row>
-    <row r="17" ht="25" customHeight="1">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>借款金额为小数</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>/loan/add</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -3912,20 +3837,20 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="16.4444444444444" customWidth="1" min="3" max="3"/>
+    <col width="16.4416666666667" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
-    <col width="35.8888888888889" customWidth="1" min="6" max="6"/>
-    <col width="21.4444444444444" customWidth="1" min="7" max="7"/>
+    <col width="15.225" customWidth="1" min="5" max="5"/>
+    <col width="35.8916666666667" customWidth="1" min="6" max="6"/>
+    <col width="21.4416666666667" customWidth="1" min="7" max="7"/>
     <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
-    <col width="9.555555555555561" customWidth="1" min="9" max="9"/>
+    <col width="9.55833333333333" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4042,6 +3967,11 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT * FROM loan WHERE member_id=#member_id#;</t>
         </is>
       </c>
     </row>
@@ -4093,21 +4023,21 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="20.5555555555556" customWidth="1" min="3" max="3"/>
+    <col width="20.5583333333333" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="16.4444444444444" customWidth="1" min="5" max="5"/>
-    <col width="41.5555555555556" customWidth="1" min="6" max="6"/>
-    <col width="26.5555555555556" customWidth="1" min="7" max="7"/>
-    <col width="24.5555555555556" customWidth="1" min="8" max="8"/>
-    <col width="9.555555555555561" customWidth="1" min="9" max="9"/>
+    <col width="16.4416666666667" customWidth="1" min="5" max="5"/>
+    <col width="41.5583333333333" customWidth="1" min="6" max="6"/>
+    <col width="26.5583333333333" customWidth="1" min="7" max="7"/>
+    <col width="24.5583333333333" customWidth="1" min="8" max="8"/>
+    <col width="9.55833333333333" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -4454,11 +4384,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col width="9.555555555555561" customWidth="1" min="1" max="1"/>
-    <col width="16.4444444444444" customWidth="1" min="2" max="2"/>
-    <col width="22.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="9.55833333333333" customWidth="1" min="1" max="1"/>
+    <col width="16.4416666666667" customWidth="1" min="2" max="2"/>
+    <col width="22.775" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data/apicases.xlsx
+++ b/data/apicases.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27180" windowHeight="10605" tabRatio="936" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19391" windowHeight="9155" tabRatio="936" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="recharge" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="add" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="audio" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="audit" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="invest" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="未覆盖的测试用例" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="main_stream" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -22,14 +23,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="25">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <name val="等线"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -72,22 +84,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -109,23 +113,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -134,6 +130,22 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -156,9 +168,23 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,37 +198,23 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -216,31 +228,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,25 +258,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +318,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,112 +402,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -439,8 +464,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,7 +500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,13 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,208 +553,183 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,69 +1049,69 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="20.8916666666667" customWidth="1" min="3" max="3"/>
+    <col width="20.8888888888889" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="17.5583333333333" customWidth="1" min="5" max="5"/>
-    <col width="46.4416666666667" customWidth="1" min="6" max="6"/>
-    <col width="40.8916666666667" customWidth="1" min="7" max="7"/>
+    <col width="17.5555555555556" customWidth="1" min="5" max="5"/>
+    <col width="46.4444444444444" customWidth="1" min="6" max="6"/>
+    <col width="40.8888888888889" customWidth="1" min="7" max="7"/>
     <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1091,7 +1121,7 @@
           <t>注册成功-带注册名</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1118,10 +1148,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
@@ -1131,7 +1161,7 @@
           <t>成功-不带用户名</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1158,20 +1188,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1186,7 +1216,7 @@
           <t>{"pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"手机号为空"}</t>
         </is>
@@ -1198,20 +1228,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1226,7 +1256,7 @@
           <t>{"mobile_phone":"1550000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1238,20 +1268,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1266,7 +1296,7 @@
           <t>{"mobile_phone":"155000000001","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式",}</t>
         </is>
@@ -1278,20 +1308,20 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1306,7 +1336,7 @@
           <t>{"mobile_phone":"1550000000q","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"无效的手机格式"}</t>
         </is>
@@ -1318,20 +1348,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1346,7 +1376,7 @@
           <t>{"mobile_phone":"15500000000","pwd":"12345678","type":1}</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"账号已存在"}</t>
         </is>
@@ -1358,20 +1388,20 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1386,7 +1416,7 @@
           <t>{"mobile_phone":"15500056781","pwd":"1234567","type":1}</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1398,20 +1428,20 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1426,7 +1456,7 @@
           <t>{"mobile_phone":"15500000001","pwd":"12345678901234567","type":1}</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"密码格式为8到16位"}</t>
         </is>
@@ -1438,20 +1468,20 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1466,7 +1496,7 @@
           <t>{"mobile_phone":"13300000001","type":1}</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"密码为空"}</t>
         </is>
@@ -1478,20 +1508,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>注册名11位</t>
         </is>
       </c>
-      <c r="D12" s="12" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1506,7 +1536,7 @@
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
       </c>
-      <c r="G12" s="12" t="inlineStr">
+      <c r="G12" s="15" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -1518,20 +1548,20 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1546,7 +1576,7 @@
           <t>{"mobile_phone":"13300003456","pwd":"12345678","type":2}</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"不支持的用户类型"}</t>
         </is>
@@ -1558,20 +1588,20 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -1586,7 +1616,7 @@
           <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -1604,662 +1634,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
-  <cols>
-    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="19.775" customWidth="1" min="3" max="3"/>
-    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="18.775" customWidth="1" min="5" max="5"/>
-    <col width="33.775" customWidth="1" min="6" max="6"/>
-    <col width="24.5583333333333" customWidth="1" min="7" max="7"/>
-    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>interface</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>check_sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-整数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600}</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-1位小数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600.1}</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-2位小数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600.22}</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>充值成功-50万</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":500000}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>会员id为空</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>{"amount":600}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{"code":1,"msg":"用户id为空"}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>id不是当前登录的用户</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": "98989898","amount":600}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customFormat="1" customHeight="1" s="11">
-      <c r="A8" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>会员id为字符串</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>{"member_id": "#member_id#","amount":600}</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>会员id为小数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": float(#member_id#), "amount":600}</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>充值金额为0</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 0}</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>充值金额为负数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": -600}</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customFormat="1" customHeight="1" s="11">
-      <c r="A12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>充值金额为空</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#}</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>{"code":1,"msg":"充值金额为空"}</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>充值金额-3位小数</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 600.222}</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额小数超过两位"}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>充值金额-大于50万</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 500001}</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>recharge</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>充值金额-非数字</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>/member/recharge</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": "5万"}</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,72 +1645,72 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col width="16.8833333333333" customWidth="1" min="3" max="3"/>
+    <col width="16.8796296296296" customWidth="1" min="3" max="3"/>
     <col width="7.5" customWidth="1" min="4" max="4"/>
-    <col width="14.3833333333333" customWidth="1" min="5" max="5"/>
+    <col width="14.3796296296296" customWidth="1" min="5" max="5"/>
     <col width="32.6666666666667" customWidth="1" min="6" max="6"/>
     <col width="38.3333333333333" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2346,7 +1720,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>{"mobile_phone":"15512345678","pwd":"12345678"}</t>
         </is>
@@ -2363,20 +1737,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2386,37 +1760,37 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2426,37 +1800,37 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>{"mobile_phone":"15512345678",}</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2466,7 +1840,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>{"mobile_phone":"15512345678","pwd":"1234566"}</t>
         </is>
@@ -2483,20 +1857,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2506,7 +1880,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>{"mobile_phone":"15512345678","pwd":"1234567"}</t>
         </is>
@@ -2523,20 +1897,20 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2546,7 +1920,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>{"mobile_phone":"12345678912","pwd":"12345678"}</t>
         </is>
@@ -2566,6 +1940,662 @@
   <hyperlinks>
     <hyperlink ref="B1" display="interface" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="19.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
+    <col width="18.7777777777778" customWidth="1" min="5" max="5"/>
+    <col width="33.7777777777778" customWidth="1" min="6" max="6"/>
+    <col width="24.5555555555556" customWidth="1" min="7" max="7"/>
+    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>充值成功-整数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>充值成功-1位小数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.1}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>充值成功-2位小数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.22}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>充值成功-50万</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":500000}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone="{}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>会员id为空</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>{"amount":600}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>id不是当前登录的用户</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": "98989898","amount":600}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customFormat="1" customHeight="1" s="11">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>会员id为字符串</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":600}</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>会员id为小数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": float(#member_id#), "amount":600}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>充值金额为0</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 0}</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>充值金额为负数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": -600}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customFormat="1" customHeight="1" s="11">
+      <c r="A12" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>充值金额为空</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#}</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"充值金额为空"}</t>
+        </is>
+      </c>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>充值金额-3位小数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 600.222}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额小数超过两位"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>充值金额-大于50万</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 500001}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="14.4" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>充值金额-非数字</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": "5万"}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2578,60 +2608,60 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="19.775" customWidth="1" min="3" max="3"/>
+    <col width="19.7777777777778" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="11.8916666666667" customWidth="1" min="5" max="5"/>
-    <col width="42.8916666666667" customWidth="1" min="6" max="6"/>
-    <col width="57.775" customWidth="1" min="7" max="7"/>
+    <col width="11.8888888888889" customWidth="1" min="5" max="5"/>
+    <col width="42.8888888888889" customWidth="1" min="6" max="6"/>
+    <col width="57.7777777777778" customWidth="1" min="7" max="7"/>
     <col width="7.66666666666667" customWidth="1" min="8" max="8"/>
     <col width="11.6666666666667" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2643,20 +2673,20 @@
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2666,7 +2696,7 @@
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
         </is>
@@ -2691,7 +2721,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>提现成功-整数</t>
         </is>
@@ -2706,7 +2736,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -2736,7 +2766,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>提现成功-1位小数</t>
         </is>
@@ -2751,7 +2781,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -2781,7 +2811,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>提现成功-2位小数</t>
         </is>
@@ -2796,7 +2826,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -2826,7 +2856,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>提现成功-50万</t>
         </is>
@@ -2841,7 +2871,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -2871,7 +2901,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -2886,7 +2916,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -2911,7 +2941,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>会员id不存在</t>
         </is>
@@ -2926,7 +2956,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>{"member_id": "98989898","amount":600}</t>
         </is>
@@ -2951,32 +2981,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -2991,7 +3021,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
@@ -3006,7 +3036,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>{"member_id": 1.0, "amount":600}</t>
         </is>
@@ -3031,32 +3061,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>提现金额为0</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3071,32 +3101,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>提现金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3111,7 +3141,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>提现金额为空</t>
         </is>
@@ -3126,7 +3156,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
@@ -3151,7 +3181,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>提现金额-3位小数</t>
         </is>
@@ -3166,7 +3196,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
@@ -3191,32 +3221,32 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>提现金额-大于50万</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="10" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
@@ -3231,7 +3261,7 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>提现金额-非数字</t>
         </is>
@@ -3246,7 +3276,7 @@
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -3275,20 +3305,20 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="25.1083333333333" customWidth="1" min="3" max="3"/>
+    <col width="25.1111111111111" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="15.225" customWidth="1" min="5" max="5"/>
+    <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
     <col width="36.6666666666667" customWidth="1" min="6" max="6"/>
     <col width="27.3333333333333" customWidth="1" min="7" max="7"/>
-    <col width="20.1083333333333" customWidth="1" min="8" max="8"/>
-    <col width="59.25" customWidth="1" min="9" max="9"/>
+    <col width="11.8888888888889" customWidth="1" min="8" max="8"/>
+    <col width="9.555555555555561" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3297,37 +3327,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -3347,22 +3377,22 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>借款人正常登录</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
         </is>
@@ -3387,22 +3417,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>加标成功</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3432,22 +3462,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款人id为空</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3472,22 +3502,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>加标失败—标题为空</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3512,22 +3542,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款金额为空</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3552,22 +3582,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>加标失败—年利率为空</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3592,22 +3622,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款期限为空</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3632,22 +3662,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款期限类型为空</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
         </is>
@@ -3672,22 +3702,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>加标失败—竞标天数为空</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
         </is>
@@ -3712,22 +3742,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款人id不是当前登录用户</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3752,22 +3782,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款金额为负数</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3792,22 +3822,22 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>加标失败—借款金额为小数</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
@@ -3834,23 +3864,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="16.4416666666667" customWidth="1" min="3" max="3"/>
+    <col width="16.4444444444444" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="15.225" customWidth="1" min="5" max="5"/>
-    <col width="35.8916666666667" customWidth="1" min="6" max="6"/>
-    <col width="21.4416666666667" customWidth="1" min="7" max="7"/>
-    <col width="6.33333333333333" customWidth="1" min="8" max="8"/>
-    <col width="9.55833333333333" customWidth="1" min="9" max="9"/>
+    <col width="15.2222222222222" customWidth="1" min="5" max="5"/>
+    <col width="35.8888888888889" customWidth="1" min="6" max="6"/>
+    <col width="31.2222222222222" customWidth="1" min="7" max="7"/>
+    <col width="14.2222222222222" customWidth="1" min="8" max="8"/>
+    <col width="9.555555555555561" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3859,37 +3889,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -3906,76 +3936,91 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>管理员正常登录</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>/member/login</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>审核通过</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="25" customHeight="1">
+          <t>{"code":0,"msg":"OK","status":2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>管理员加标</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>/loan/add</t>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>审核不通过</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+          <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK"</t>
+          <t>{"code":0,"msg":"OK","status":5}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SELECT * FROM loan WHERE member_id=#member_id#;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="25" customHeight="1">
+          <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -3984,29 +4029,154 @@
           <t>audit</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>管理员正常审核</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>项目不待审核状态</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#pass_loan_id#,"approved_or_not": False}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK"</t>
+          <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>参数approved_or_not为空</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{ "code": 1,"msg": "approved_or_not为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目id为空</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{ "code": 1,"msg": "项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>项目id不存在</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#+10000,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "项目不存在"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -4023,21 +4193,21 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="20.5583333333333" customWidth="1" min="3" max="3"/>
+    <col width="20.5555555555556" customWidth="1" min="3" max="3"/>
     <col width="8.33333333333333" customWidth="1" min="4" max="4"/>
-    <col width="16.4416666666667" customWidth="1" min="5" max="5"/>
-    <col width="41.5583333333333" customWidth="1" min="6" max="6"/>
-    <col width="26.5583333333333" customWidth="1" min="7" max="7"/>
-    <col width="24.5583333333333" customWidth="1" min="8" max="8"/>
-    <col width="9.55833333333333" customWidth="1" min="9" max="9"/>
+    <col width="16.4444444444444" customWidth="1" min="5" max="5"/>
+    <col width="41.5555555555556" customWidth="1" min="6" max="6"/>
+    <col width="26.5555555555556" customWidth="1" min="7" max="7"/>
+    <col width="14.6666666666667" customWidth="1" min="8" max="8"/>
+    <col width="9.555555555555561" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -4046,37 +4216,37 @@
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -4096,22 +4266,22 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>管理员正常登录</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
         </is>
@@ -4119,6 +4289,11 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -4131,162 +4306,182 @@
           <t>add</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>管理员加标</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK"</t>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>audit</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>管理员审核</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>patch</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK"</t>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>投资人正常登录</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>投资人正常登录</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>/member/login</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>invest</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>投资人正常投资</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK"</t>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>invest</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>投资人id为空</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>{"loan_id":#loan_id#,"amount":300}</t>
         </is>
@@ -4294,34 +4489,39 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"会员id为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>invest</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>标id为空</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#,"amount":300}</t>
         </is>
@@ -4329,41 +4529,51 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>invest</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>投资金额为空</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>/member/invest</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>code":1,"msg":"余额为空"}</t>
+          <t>{"code":1,"msg":"余额为空"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -4381,14 +4591,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
-    <col width="9.55833333333333" customWidth="1" min="1" max="1"/>
-    <col width="16.4416666666667" customWidth="1" min="2" max="2"/>
-    <col width="22.775" customWidth="1" min="3" max="3"/>
+    <col width="9.555555555555561" customWidth="1" min="1" max="1"/>
+    <col width="16.4444444444444" customWidth="1" min="2" max="2"/>
+    <col width="22.7777777777778" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4426,4 +4636,567 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="22.6666666666667" customWidth="1" min="3" max="3"/>
+    <col width="23.5555555555556" customWidth="1" min="5" max="5"/>
+    <col width="56.6666666666667" customWidth="1" min="6" max="6"/>
+    <col width="20.2222222222222" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>管理员注册</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.6" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>管理员正常登录</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#admin_phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="19" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>管理员加标</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="15.6" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>管理员审核</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="24" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "OK"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>投资人正常登录</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>获取用户信息</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>/member/#member_id#/info</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>更改昵称</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>recharge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>充值</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":20000}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>投资人正常投资</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n"/>
+    </row>
+    <row r="12" ht="25" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>取现</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>loans</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>获取项目列表</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/loans</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"pageIndex":1,"pageSize":20}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>